--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53090.98573899867</v>
+        <v>10565106.16206073</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53090.98573899867</v>
+        <v>10565106.16206073</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.773511938163267</v>
+        <v>286.410716289796</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.773511938163267</v>
+        <v>286.410716289796</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035757315.047052</v>
+        <v>42526060.89785079</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8688.810175992936</v>
+        <v>960409.5223780082</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16669.44468902923</v>
+        <v>1810463.247638043</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24650.07920206553</v>
+        <v>2660516.972898079</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32999.24802474334</v>
+        <v>3527049.071486218</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41265.74048378478</v>
+        <v>4377128.57371072</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49532.23294282621</v>
+        <v>5227208.07593522</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57798.72540186764</v>
+        <v>6077287.578159719</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66065.21786090906</v>
+        <v>6927367.080384217</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74331.71031995051</v>
+        <v>7777446.582608716</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82598.20277899194</v>
+        <v>8627526.084833212</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90864.69523803334</v>
+        <v>9477605.587057715</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98782.72954839628</v>
+        <v>10311988.93413071</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106779.6390102744</v>
+        <v>11162068.43635522</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114776.5484721525</v>
+        <v>12012147.93857972</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122773.4579340305</v>
+        <v>12862227.44080423</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>385</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
